--- a/Navier_Stokes/Hendrik/A1/Aufgabe1 Daten.xlsx
+++ b/Navier_Stokes/Hendrik/A1/Aufgabe1 Daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luft- und Raumfahrttechnik\Master\3. Semester\CFD-Programmierseminar\NavierStokes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB90AB3F-C0E7-4809-928F-4C67CD42E964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B270C86D-FA0A-43C2-AE47-5F52B8E123BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84427A40-1955-496C-8247-77633D2B6EBE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Zeit</t>
   </si>
@@ -82,6 +82,15 @@
   <si>
     <t>tatsächl. Rechenzeit increase</t>
   </si>
+  <si>
+    <t>Euler</t>
+  </si>
+  <si>
+    <t>netz</t>
+  </si>
+  <si>
+    <t>Rechenzeit</t>
+  </si>
 </sst>
 </file>
 
@@ -102,18 +111,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,7 +134,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FEB58F-F089-4857-AC93-E509A745686C}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,8 +642,8 @@
         <v>21.99</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F3:F25" si="0">B7</f>
-        <v>0.01</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>1.5900000000000001E-3</v>
@@ -666,8 +669,8 @@
         <v>102.76</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>B8/B7</f>
+        <v>5</v>
       </c>
       <c r="G8">
         <f>E8/E7</f>
@@ -697,8 +700,8 @@
         <v>226.78</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>B9/B7</f>
+        <v>10</v>
       </c>
       <c r="G9">
         <f>E9/E7</f>
@@ -751,8 +754,8 @@
         <v>387.41</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>8.1499999999999997E-4</v>
@@ -778,8 +781,8 @@
         <v>1906.77</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>B12/B11</f>
+        <v>5</v>
       </c>
       <c r="G12">
         <f>E12/E11</f>
@@ -809,8 +812,8 @@
         <v>3263.09</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>B13/B11</f>
+        <v>10</v>
       </c>
       <c r="G13">
         <f>E13/E11</f>
@@ -863,8 +866,8 @@
         <v>4.93</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>5.2599999999999998E-5</v>
@@ -890,8 +893,8 @@
         <v>24.55</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>B16/B15</f>
+        <v>5</v>
       </c>
       <c r="G16">
         <f>E16/E15</f>
@@ -921,8 +924,8 @@
         <v>46.84</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>B17/B15</f>
+        <v>10</v>
       </c>
       <c r="G17">
         <f>E17/E15</f>
@@ -975,8 +978,8 @@
         <v>74.19</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <v>1.2500000000000001E-5</v>
@@ -1002,8 +1005,8 @@
         <v>368.89</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>B20/B19</f>
+        <v>5</v>
       </c>
       <c r="G20">
         <f>E20/E19</f>
@@ -1033,8 +1036,8 @@
         <v>737.04</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>B21/B19</f>
+        <v>10</v>
       </c>
       <c r="G21">
         <f>E21/E19</f>
@@ -1087,8 +1090,8 @@
         <v>1205.8399999999999</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
         <v>3.0599999999999999E-6</v>
@@ -1114,8 +1117,8 @@
         <v>6123.78</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>B24/B23</f>
+        <v>5</v>
       </c>
       <c r="G24">
         <f>E24/E23</f>
@@ -1145,8 +1148,8 @@
         <v>11998.56</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>B25/B23</f>
+        <v>10</v>
       </c>
       <c r="G25">
         <f>E25/E23</f>
@@ -1232,11 +1235,11 @@
         <v>0.97446490789286255</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" ref="J30:K30" si="1">LOG(G30/G31)/LOG($C31/$C30)</f>
+        <f t="shared" ref="J30:K30" si="0">LOG(G30/G31)/LOG($C31/$C30)</f>
         <v>0.97315838778135877</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.95395263248056361</v>
       </c>
       <c r="L30">
@@ -1266,15 +1269,15 @@
         <v>5.7299999999999999E-3</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ref="I31:I53" si="2">LOG(F31/F32)/LOG($C32/$C31)</f>
+        <f t="shared" ref="I31:I52" si="1">LOG(F31/F32)/LOG($C32/$C31)</f>
         <v>0.97989242655142494</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ref="J31:J53" si="3">LOG(G31/G32)/LOG($C32/$C31)</f>
+        <f t="shared" ref="J31:J52" si="2">LOG(G31/G32)/LOG($C32/$C31)</f>
         <v>0.9801915189198197</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" ref="K31:K53" si="4">LOG(H31/H32)/LOG($C32/$C31)</f>
+        <f t="shared" ref="K31:K51" si="3">LOG(H31/H32)/LOG($C32/$C31)</f>
         <v>0.96763447433465699</v>
       </c>
       <c r="L31">
@@ -1330,15 +1333,15 @@
         <v>5.1599999999999997E-4</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9660105720189762</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>1.9660105720189762</v>
-      </c>
-      <c r="J33" s="1">
+        <v>2.0128240403575837</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>2.0128240403575837</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="4"/>
         <v>1.8614801359185718</v>
       </c>
       <c r="L33">
@@ -1368,15 +1371,15 @@
         <v>1.4200000000000001E-4</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7995965824366102</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="2"/>
-        <v>1.7995965824366102</v>
-      </c>
-      <c r="J34" s="1">
+        <v>1.8475847668461369</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>1.8475847668461369</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="4"/>
         <v>1.8098971166200573</v>
       </c>
       <c r="L34">
@@ -1432,15 +1435,15 @@
         <v>1.06E-2</v>
       </c>
       <c r="I36" s="1">
+        <f>LOG(F36/F37)/LOG($C37/$C36)</f>
+        <v>1.0045296584805141</v>
+      </c>
+      <c r="J36" s="1">
         <f t="shared" si="2"/>
-        <v>1.0045296584805141</v>
-      </c>
-      <c r="J36" s="1">
+        <v>1.0142842260062475</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>1.0142842260062475</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="4"/>
         <v>0.69449745302574895</v>
       </c>
       <c r="L36">
@@ -1470,15 +1473,15 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96415480105327789</v>
+      </c>
+      <c r="J37" s="1">
         <f t="shared" si="2"/>
-        <v>0.96415480105327789</v>
-      </c>
-      <c r="J37" s="1">
+        <v>0.97862634920743297</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>0.97862634920743297</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="4"/>
         <v>0.75172475143862072</v>
       </c>
       <c r="L37">
@@ -1534,15 +1537,15 @@
         <v>2.61E-4</v>
       </c>
       <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0731347046302151</v>
+      </c>
+      <c r="J39" s="1">
         <f t="shared" si="2"/>
-        <v>2.0731347046302151</v>
-      </c>
-      <c r="J39" s="1">
+        <v>2.0674177613601068</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="3"/>
-        <v>2.0674177613601068</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="4"/>
         <v>1.8341342531732041</v>
       </c>
       <c r="L39">
@@ -1572,15 +1575,15 @@
         <v>7.3200000000000004E-5</v>
       </c>
       <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0303245368567979</v>
+      </c>
+      <c r="J40" s="1">
         <f t="shared" si="2"/>
-        <v>2.0303245368567979</v>
-      </c>
-      <c r="J40" s="1">
+        <v>2.0179219079972626</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="3"/>
-        <v>2.0179219079972626</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="4"/>
         <v>1.714799938363738</v>
       </c>
       <c r="L40">
@@ -1636,15 +1639,15 @@
         <v>1.23E-2</v>
       </c>
       <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94304411518792408</v>
+      </c>
+      <c r="J42" s="1">
         <f t="shared" si="2"/>
-        <v>0.94304411518792408</v>
-      </c>
-      <c r="J42" s="1">
+        <v>0.94670177383995102</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="3"/>
-        <v>0.94670177383995102</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="4"/>
         <v>0.81323148839427339</v>
       </c>
       <c r="L42">
@@ -1674,15 +1677,15 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9650573030186419</v>
+      </c>
+      <c r="J43" s="1">
         <f t="shared" si="2"/>
-        <v>0.9650573030186419</v>
-      </c>
-      <c r="J43" s="1">
+        <v>0.96164388496895492</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="3"/>
-        <v>0.96164388496895492</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="4"/>
         <v>0.86624861111117268</v>
       </c>
       <c r="L43">
@@ -1738,15 +1741,15 @@
         <v>3.3199999999999999E-4</v>
       </c>
       <c r="I45" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9886846867721661</v>
+      </c>
+      <c r="J45" s="1">
         <f t="shared" si="2"/>
-        <v>1.9886846867721661</v>
-      </c>
-      <c r="J45" s="1">
+        <v>1.9199923521083497</v>
+      </c>
+      <c r="K45" s="1">
         <f t="shared" si="3"/>
-        <v>1.9199923521083497</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="4"/>
         <v>1.5170584362193524</v>
       </c>
       <c r="L45">
@@ -1776,15 +1779,15 @@
         <v>1.16E-4</v>
       </c>
       <c r="I46" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9687812693892797</v>
+      </c>
+      <c r="J46" s="1">
         <f t="shared" si="2"/>
-        <v>1.9687812693892797</v>
-      </c>
-      <c r="J46" s="1">
+        <v>1.8694158901898554</v>
+      </c>
+      <c r="K46" s="1">
         <f t="shared" si="3"/>
-        <v>1.8694158901898554</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="4"/>
         <v>1.5110241057486875</v>
       </c>
       <c r="L46">
@@ -1840,15 +1843,15 @@
         <v>1.21E-2</v>
       </c>
       <c r="I48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94721258564056487</v>
+      </c>
+      <c r="J48" s="1">
         <f t="shared" si="2"/>
-        <v>0.94721258564056487</v>
-      </c>
-      <c r="J48" s="1">
+        <v>0.9491188309978158</v>
+      </c>
+      <c r="K48" s="1">
         <f t="shared" si="3"/>
-        <v>0.9491188309978158</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="4"/>
         <v>0.84632863755163978</v>
       </c>
       <c r="L48">
@@ -1878,15 +1881,15 @@
         <v>6.7299999999999999E-3</v>
       </c>
       <c r="I49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96923045604312441</v>
+      </c>
+      <c r="J49" s="1">
         <f t="shared" si="2"/>
-        <v>0.96923045604312441</v>
-      </c>
-      <c r="J49" s="1">
+        <v>0.97171095556857623</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="3"/>
-        <v>0.97171095556857623</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="4"/>
         <v>0.91064691734606074</v>
       </c>
       <c r="L49">
@@ -1942,15 +1945,15 @@
         <v>4.1800000000000002E-4</v>
       </c>
       <c r="I51" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9541963103868751</v>
+      </c>
+      <c r="J51" s="1">
         <f t="shared" si="2"/>
-        <v>1.9541963103868751</v>
-      </c>
-      <c r="J51" s="1">
+        <v>1.8242881568379052</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="3"/>
-        <v>1.8242881568379052</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="4"/>
         <v>1.4594316186372971</v>
       </c>
       <c r="L51">
@@ -1980,16 +1983,16 @@
         <v>1.5200000000000001E-4</v>
       </c>
       <c r="I52" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9604716358133627</v>
+      </c>
+      <c r="J52" s="1">
         <f t="shared" si="2"/>
-        <v>1.9604716358133627</v>
-      </c>
-      <c r="J52" s="1">
-        <f t="shared" si="3"/>
         <v>1.8145265774598587</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <f>LOG(H52/H53)/LOG($C53/$C52)</f>
-        <v>-1.8710135592799217</v>
+        <v>1.4509145356074402</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -2015,11 +2018,219 @@
         <v>6.8800000000000002E-6</v>
       </c>
       <c r="H53" s="1">
-        <v>5.5599999999999996E-4</v>
+        <v>5.5600000000000003E-5</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>1.18</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.3600000000000001E-3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4.2599999999999999E-3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="G60" s="1">
+        <f>LOG(D60/D61)/LOG($B61/$B60)</f>
+        <v>0.97446490789286255</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" ref="H60:I61" si="4">LOG(E60/E61)/LOG($B61/$B60)</f>
+        <v>0.97315838778135877</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="4"/>
+        <v>0.94316654611704587</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+      <c r="C61">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5.7730000000000004E-3</v>
+      </c>
+      <c r="G61" s="1">
+        <f>LOG(D61/D62)/LOG($B62/$B61)</f>
+        <v>0.97989242655142494</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9801915189198197</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="4"/>
+        <v>0.97842056069817473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>400</v>
+      </c>
+      <c r="C62">
+        <v>85.72</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8.6700000000000004E-4</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>4.34</v>
+      </c>
+      <c r="D63" s="1">
+        <v>7.9699999999999999E-5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1.13E-4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" ref="G61:G64" si="5">LOG(D63/D64)/LOG($B64/$B63)</f>
+        <v>1.9660105720189762</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" ref="H63:H65" si="6">LOG(E63/E64)/LOG($B64/$B63)</f>
+        <v>2.0128240403575837</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" ref="I63:I65" si="7">LOG(F63/F64)/LOG($B64/$B63)</f>
+        <v>1.8614801359185718</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+      <c r="C64">
+        <v>34.36</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2.0400000000000001E-5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2.8E-5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7995965824366102</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8475847668461369</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="7"/>
+        <v>1.8098971166200573</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>400</v>
+      </c>
+      <c r="C65">
+        <v>271.58</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5.8599999999999998E-6</v>
+      </c>
+      <c r="E65" s="1">
+        <v>7.7800000000000001E-6</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4.0500000000000002E-5</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
